--- a/team_specific_matrix/N.C. A&T_B.xlsx
+++ b/team_specific_matrix/N.C. A&T_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2270916334661355</v>
+        <v>0.2320819112627986</v>
       </c>
       <c r="C2">
-        <v>0.4780876494023905</v>
+        <v>0.4778156996587031</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01195219123505976</v>
+        <v>0.0204778156996587</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1673306772908366</v>
+        <v>0.1638225255972696</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1155378486055777</v>
+        <v>0.10580204778157</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008130081300813009</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="C3">
-        <v>0.01626016260162602</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.008130081300813009</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8130081300813008</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1544715447154472</v>
+        <v>0.1608391608391608</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5555555555555556</v>
+        <v>0.5625</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04545454545454546</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01298701298701299</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03246753246753246</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2597402597402597</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01298701298701299</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1623376623376623</v>
+        <v>0.1748633879781421</v>
       </c>
       <c r="R6">
-        <v>0.08441558441558442</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="S6">
-        <v>0.3896103896103896</v>
+        <v>0.360655737704918</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1179775280898876</v>
+        <v>0.1127450980392157</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03932584269662921</v>
+        <v>0.03431372549019608</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03932584269662921</v>
+        <v>0.03431372549019608</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1460674157303371</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02247191011235955</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1797752808988764</v>
+        <v>0.1813725490196078</v>
       </c>
       <c r="R7">
-        <v>0.1235955056179775</v>
+        <v>0.1225490196078431</v>
       </c>
       <c r="S7">
-        <v>0.3314606741573033</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07479224376731301</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01385041551246537</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04986149584487535</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1440443213296399</v>
+        <v>0.1435643564356436</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01385041551246537</v>
+        <v>0.01237623762376238</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2326869806094183</v>
+        <v>0.2376237623762376</v>
       </c>
       <c r="R8">
-        <v>0.09695290858725762</v>
+        <v>0.1014851485148515</v>
       </c>
       <c r="S8">
-        <v>0.3739612188365651</v>
+        <v>0.3663366336633663</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07199999999999999</v>
+        <v>0.07051282051282051</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.024</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.048</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.104</v>
+        <v>0.1217948717948718</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.024</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.28</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="R9">
-        <v>0.07199999999999999</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S9">
-        <v>0.376</v>
+        <v>0.3782051282051282</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1137614678899083</v>
+        <v>0.1113653699466056</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02660550458715596</v>
+        <v>0.02364607170099161</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06513761467889909</v>
+        <v>0.06636155606407322</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1284403669724771</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01651376146788991</v>
+        <v>0.01601830663615561</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2293577981651376</v>
+        <v>0.2349351639969489</v>
       </c>
       <c r="R10">
-        <v>0.07706422018348624</v>
+        <v>0.08161708619374523</v>
       </c>
       <c r="S10">
-        <v>0.3431192660550459</v>
+        <v>0.3356216628527841</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1522491349480969</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1107266435986159</v>
+        <v>0.1101190476190476</v>
       </c>
       <c r="K11">
-        <v>0.2249134948096886</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="L11">
-        <v>0.5086505190311419</v>
+        <v>0.5029761904761905</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.003460207612456748</v>
+        <v>0.002976190476190476</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.777027027027027</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1959459459459459</v>
+        <v>0.1941176470588235</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.006756756756756757</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02027027027027027</v>
+        <v>0.02352941176470588</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7419354838709677</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2580645161290323</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03012048192771084</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1566265060240964</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="I15">
-        <v>0.06024096385542169</v>
+        <v>0.05291005291005291</v>
       </c>
       <c r="J15">
-        <v>0.3433734939759036</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="K15">
-        <v>0.04216867469879518</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01204819277108434</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06626506024096386</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2891566265060241</v>
+        <v>0.2804232804232804</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02531645569620253</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2088607594936709</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="I16">
-        <v>0.06329113924050633</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J16">
-        <v>0.3670886075949367</v>
+        <v>0.3791208791208791</v>
       </c>
       <c r="K16">
-        <v>0.189873417721519</v>
+        <v>0.1813186813186813</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02531645569620253</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03164556962025317</v>
+        <v>0.02747252747252747</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08860759493670886</v>
+        <v>0.1043956043956044</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01647058823529412</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1717647058823529</v>
+        <v>0.1715399610136452</v>
       </c>
       <c r="I17">
-        <v>0.06823529411764706</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="J17">
-        <v>0.4752941176470588</v>
+        <v>0.4697855750487329</v>
       </c>
       <c r="K17">
-        <v>0.1058823529411765</v>
+        <v>0.09941520467836257</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01411764705882353</v>
+        <v>0.01364522417153996</v>
       </c>
       <c r="N17">
-        <v>0.004705882352941176</v>
+        <v>0.003898635477582846</v>
       </c>
       <c r="O17">
-        <v>0.03529411764705882</v>
+        <v>0.04093567251461988</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1082352941176471</v>
+        <v>0.1091617933723197</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1772151898734177</v>
+        <v>0.1658291457286432</v>
       </c>
       <c r="I18">
-        <v>0.1075949367088608</v>
+        <v>0.1055276381909548</v>
       </c>
       <c r="J18">
-        <v>0.3860759493670886</v>
+        <v>0.4271356783919598</v>
       </c>
       <c r="K18">
-        <v>0.1075949367088608</v>
+        <v>0.09547738693467336</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0189873417721519</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05696202531645569</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1455696202531646</v>
+        <v>0.1306532663316583</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.008264462809917356</v>
+        <v>0.009838998211091235</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2097107438016529</v>
+        <v>0.1994633273703041</v>
       </c>
       <c r="I19">
-        <v>0.06095041322314049</v>
+        <v>0.06618962432915922</v>
       </c>
       <c r="J19">
-        <v>0.390495867768595</v>
+        <v>0.4016100178890877</v>
       </c>
       <c r="K19">
-        <v>0.125</v>
+        <v>0.1243291592128801</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01756198347107438</v>
+        <v>0.01788908765652952</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07541322314049587</v>
+        <v>0.07155635062611806</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.112603305785124</v>
+        <v>0.10912343470483</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/N.C. A&T_B.xlsx
+++ b/team_specific_matrix/N.C. A&T_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2320819112627986</v>
+        <v>0.2397476340694006</v>
       </c>
       <c r="C2">
-        <v>0.4778156996587031</v>
+        <v>0.4700315457413249</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0204778156996587</v>
+        <v>0.0220820189274448</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1638225255972696</v>
+        <v>0.167192429022082</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.10580204778157</v>
+        <v>0.1009463722397476</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006993006993006993</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="C3">
-        <v>0.01398601398601399</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006993006993006993</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8111888111888111</v>
+        <v>0.8013245033112583</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1608391608391608</v>
+        <v>0.1721854304635762</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.125</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5625</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3125</v>
+        <v>0.2830188679245283</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04918032786885246</v>
+        <v>0.0541871921182266</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01092896174863388</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0273224043715847</v>
+        <v>0.02955665024630542</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2622950819672131</v>
+        <v>0.270935960591133</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01092896174863388</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1748633879781421</v>
+        <v>0.1625615763546798</v>
       </c>
       <c r="R6">
-        <v>0.1038251366120219</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="S6">
-        <v>0.360655737704918</v>
+        <v>0.3596059113300493</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1127450980392157</v>
+        <v>0.1017699115044248</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03431372549019608</v>
+        <v>0.03539823008849557</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03431372549019608</v>
+        <v>0.03097345132743363</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1372549019607843</v>
+        <v>0.1504424778761062</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02450980392156863</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1813725490196078</v>
+        <v>0.1858407079646018</v>
       </c>
       <c r="R7">
-        <v>0.1225490196078431</v>
+        <v>0.1150442477876106</v>
       </c>
       <c r="S7">
-        <v>0.3529411764705883</v>
+        <v>0.3584070796460177</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07425742574257425</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01485148514851485</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04950495049504951</v>
+        <v>0.05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1435643564356436</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01237623762376238</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2376237623762376</v>
+        <v>0.2340909090909091</v>
       </c>
       <c r="R8">
-        <v>0.1014851485148515</v>
+        <v>0.1</v>
       </c>
       <c r="S8">
-        <v>0.3663366336633663</v>
+        <v>0.3727272727272727</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07051282051282051</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01923076923076923</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05128205128205128</v>
+        <v>0.05113636363636364</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1217948717948718</v>
+        <v>0.1193181818181818</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02564102564102564</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2564102564102564</v>
+        <v>0.2443181818181818</v>
       </c>
       <c r="R9">
-        <v>0.07692307692307693</v>
+        <v>0.07386363636363637</v>
       </c>
       <c r="S9">
-        <v>0.3782051282051282</v>
+        <v>0.4034090909090909</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1113653699466056</v>
+        <v>0.1064120054570259</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02364607170099161</v>
+        <v>0.02387448840381992</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06636155606407322</v>
+        <v>0.06616643929058663</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1304347826086956</v>
+        <v>0.1268758526603001</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01601830663615561</v>
+        <v>0.01500682128240109</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2349351639969489</v>
+        <v>0.2380627557980901</v>
       </c>
       <c r="R10">
-        <v>0.08161708619374523</v>
+        <v>0.08663028649386084</v>
       </c>
       <c r="S10">
-        <v>0.3356216628527841</v>
+        <v>0.3369713506139154</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1517857142857143</v>
+        <v>0.1544715447154472</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1101190476190476</v>
+        <v>0.1002710027100271</v>
       </c>
       <c r="K11">
-        <v>0.2321428571428572</v>
+        <v>0.2276422764227642</v>
       </c>
       <c r="L11">
-        <v>0.5029761904761905</v>
+        <v>0.5149051490514905</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.002976190476190476</v>
+        <v>0.002710027100271003</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7647058823529411</v>
+        <v>0.7461139896373057</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1941176470588235</v>
+        <v>0.2020725388601036</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01764705882352941</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02352941176470588</v>
+        <v>0.02072538860103627</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02645502645502645</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1481481481481481</v>
+        <v>0.1421800947867299</v>
       </c>
       <c r="I15">
-        <v>0.05291005291005291</v>
+        <v>0.05687203791469194</v>
       </c>
       <c r="J15">
-        <v>0.3703703703703703</v>
+        <v>0.3791469194312796</v>
       </c>
       <c r="K15">
-        <v>0.04761904761904762</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01058201058201058</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06349206349206349</v>
+        <v>0.06635071090047394</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2804232804232804</v>
+        <v>0.2796208530805687</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02197802197802198</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1923076923076923</v>
+        <v>0.1938775510204082</v>
       </c>
       <c r="I16">
-        <v>0.07142857142857142</v>
+        <v>0.0663265306122449</v>
       </c>
       <c r="J16">
-        <v>0.3791208791208791</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="K16">
-        <v>0.1813186813186813</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02197802197802198</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02747252747252747</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1043956043956044</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01754385964912281</v>
+        <v>0.01757469244288225</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1715399610136452</v>
+        <v>0.1652021089630931</v>
       </c>
       <c r="I17">
-        <v>0.07407407407407407</v>
+        <v>0.07205623901581722</v>
       </c>
       <c r="J17">
-        <v>0.4697855750487329</v>
+        <v>0.4727592267135325</v>
       </c>
       <c r="K17">
-        <v>0.09941520467836257</v>
+        <v>0.101933216168717</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01364522417153996</v>
+        <v>0.01581722319859402</v>
       </c>
       <c r="N17">
-        <v>0.003898635477582846</v>
+        <v>0.00351493848857645</v>
       </c>
       <c r="O17">
-        <v>0.04093567251461988</v>
+        <v>0.0421792618629174</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1091617933723197</v>
+        <v>0.10896309314587</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1658291457286432</v>
+        <v>0.1548672566371681</v>
       </c>
       <c r="I18">
-        <v>0.1055276381909548</v>
+        <v>0.1106194690265487</v>
       </c>
       <c r="J18">
-        <v>0.4271356783919598</v>
+        <v>0.4292035398230089</v>
       </c>
       <c r="K18">
-        <v>0.09547738693467336</v>
+        <v>0.084070796460177</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02010050251256281</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05527638190954774</v>
+        <v>0.06637168141592921</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1306532663316583</v>
+        <v>0.1371681415929203</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009838998211091235</v>
+        <v>0.01036682615629984</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1994633273703041</v>
+        <v>0.1961722488038277</v>
       </c>
       <c r="I19">
-        <v>0.06618962432915922</v>
+        <v>0.06778309409888357</v>
       </c>
       <c r="J19">
-        <v>0.4016100178890877</v>
+        <v>0.4011164274322169</v>
       </c>
       <c r="K19">
-        <v>0.1243291592128801</v>
+        <v>0.1259968102073365</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01788908765652952</v>
+        <v>0.01594896331738437</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07155635062611806</v>
+        <v>0.07177033492822966</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.10912343470483</v>
+        <v>0.1108452950558214</v>
       </c>
     </row>
   </sheetData>
